--- a/SpreadSheetLightExamples/Products.xlsx
+++ b/SpreadSheetLightExamples/Products.xlsx
@@ -1,21 +1,617 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OED\DotnetLand\VS2022\excel-spreadsheetlight-csharp\SpreadSheetLightExamples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC578B92-2C9F-43A7-8FDE-AB789BA84AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="195">
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>SupplierID</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>CategoryID</t>
+  </si>
+  <si>
+    <t>QuantityPerUnit</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>UnitsInStock</t>
+  </si>
+  <si>
+    <t>UnitsOnOrder</t>
+  </si>
+  <si>
+    <t>ReorderLevel</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>CÃ´te de Blaye</t>
+  </si>
+  <si>
+    <t>Aux joyeux ecclÃ©siastiques</t>
+  </si>
+  <si>
+    <t>12 - 75 cl bottles</t>
+  </si>
+  <si>
+    <t>Chai</t>
+  </si>
+  <si>
+    <t>Exotic Liquids</t>
+  </si>
+  <si>
+    <t>10 boxes x 20 bags</t>
+  </si>
+  <si>
+    <t>Chang</t>
+  </si>
+  <si>
+    <t>Red car</t>
+  </si>
+  <si>
+    <t>24 - 12 oz bottles</t>
+  </si>
+  <si>
+    <t>Chartreuse verte</t>
+  </si>
+  <si>
+    <t>750 cc per bottle</t>
+  </si>
+  <si>
+    <t>GuaranÃ¡ FantÃ¡stica</t>
+  </si>
+  <si>
+    <t>Refrescos Americanas LTDA</t>
+  </si>
+  <si>
+    <t>12 - 355 ml cans</t>
+  </si>
+  <si>
+    <t>Ipoh Coffee</t>
+  </si>
+  <si>
+    <t>Leka Trading</t>
+  </si>
+  <si>
+    <t>16 - 500 g tins</t>
+  </si>
+  <si>
+    <t>LakkalikÃ¶Ã¶ri</t>
+  </si>
+  <si>
+    <t>Karkki Oy</t>
+  </si>
+  <si>
+    <t>500 ml</t>
+  </si>
+  <si>
+    <t>Laughing Lumberjack Lager</t>
+  </si>
+  <si>
+    <t>Bigfoot Breweries</t>
+  </si>
+  <si>
+    <t>Outback Lager</t>
+  </si>
+  <si>
+    <t>Pavlova, Ltd.</t>
+  </si>
+  <si>
+    <t>24 - 355 ml bottles</t>
+  </si>
+  <si>
+    <t>RhonbrÃ¤u Klosterbier</t>
+  </si>
+  <si>
+    <t>Plutzer LebensmittelgroÃŸmÃ¤rkte AG</t>
+  </si>
+  <si>
+    <t>24 - 0.5 l bottles</t>
+  </si>
+  <si>
+    <t>Sasquatch Ale</t>
+  </si>
+  <si>
+    <t>Steeleye Stout</t>
+  </si>
+  <si>
+    <t>Condiments</t>
+  </si>
+  <si>
+    <t>Aniseed Syrup</t>
+  </si>
+  <si>
+    <t>12 - 550 ml bottles</t>
+  </si>
+  <si>
+    <t>Chef Anton's Cajun Seasoning</t>
+  </si>
+  <si>
+    <t>New Orleans Cajun Delights</t>
+  </si>
+  <si>
+    <t>48 - 6 oz jars</t>
+  </si>
+  <si>
+    <t>Chef Anton's Gumbo Mix</t>
+  </si>
+  <si>
+    <t>36 boxes</t>
+  </si>
+  <si>
+    <t>Genen Shouyu</t>
+  </si>
+  <si>
+    <t>24 - 250 ml bottles</t>
+  </si>
+  <si>
+    <t>Grandma's Boysenberry Spread</t>
+  </si>
+  <si>
+    <t>Grandma Kelly's Homestead</t>
+  </si>
+  <si>
+    <t>12 - 8 oz jars</t>
+  </si>
+  <si>
+    <t>Gula Malacca</t>
+  </si>
+  <si>
+    <t>20 - 2 kg bags</t>
+  </si>
+  <si>
+    <t>Louisiana Fiery Hot Pepper Sauce</t>
+  </si>
+  <si>
+    <t>32 - 8 oz bottles</t>
+  </si>
+  <si>
+    <t>Louisiana Hot Spiced Okra</t>
+  </si>
+  <si>
+    <t>24 - 8 oz jars</t>
+  </si>
+  <si>
+    <t>Northwoods Cranberry Sauce</t>
+  </si>
+  <si>
+    <t>12 - 12 oz jars</t>
+  </si>
+  <si>
+    <t>Original Frankfurter grÃ¼ne SoÃŸe</t>
+  </si>
+  <si>
+    <t>12 boxes</t>
+  </si>
+  <si>
+    <t>Sirop d'Ã©rable</t>
+  </si>
+  <si>
+    <t>ForÃªts d'Ã©rables</t>
+  </si>
+  <si>
+    <t>24 - 500 ml bottles</t>
+  </si>
+  <si>
+    <t>Vegie-spread</t>
+  </si>
+  <si>
+    <t>15 - 625 g jars</t>
+  </si>
+  <si>
+    <t>Confections</t>
+  </si>
+  <si>
+    <t>Chocolade</t>
+  </si>
+  <si>
+    <t>Zaanse Snoepfabriek</t>
+  </si>
+  <si>
+    <t>10 pkgs.</t>
+  </si>
+  <si>
+    <t>GumbÃ¤r GummibÃ¤rchen</t>
+  </si>
+  <si>
+    <t>Heli SÃ¼ÃŸwaren GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>100 - 250 g bags</t>
+  </si>
+  <si>
+    <t>Maxilaku</t>
+  </si>
+  <si>
+    <t>24 - 50 g pkgs.</t>
+  </si>
+  <si>
+    <t>NuNuCa NuÃŸ-Nougat-Creme</t>
+  </si>
+  <si>
+    <t>20 - 450 g glasses</t>
+  </si>
+  <si>
+    <t>Pavlova</t>
+  </si>
+  <si>
+    <t>32 - 500 g boxes</t>
+  </si>
+  <si>
+    <t>Schoggi Schokolade</t>
+  </si>
+  <si>
+    <t>100 - 100 g pieces</t>
+  </si>
+  <si>
+    <t>Scottish Longbreads</t>
+  </si>
+  <si>
+    <t>Specialty Biscuits, Ltd.</t>
+  </si>
+  <si>
+    <t>10 boxes x 8 pieces</t>
+  </si>
+  <si>
+    <t>Sir Rodney's Marmalade</t>
+  </si>
+  <si>
+    <t>30 gift boxes</t>
+  </si>
+  <si>
+    <t>Sir Rodney's Scones</t>
+  </si>
+  <si>
+    <t>24 pkgs. x 4 pieces</t>
+  </si>
+  <si>
+    <t>Tarte au sucre</t>
+  </si>
+  <si>
+    <t>48 pies</t>
+  </si>
+  <si>
+    <t>Teatime Chocolate Biscuits</t>
+  </si>
+  <si>
+    <t>10 boxes x 12 pieces</t>
+  </si>
+  <si>
+    <t>Valkoinen suklaa</t>
+  </si>
+  <si>
+    <t>12 - 100 g bars</t>
+  </si>
+  <si>
+    <t>Zaanse koeken</t>
+  </si>
+  <si>
+    <t>10 - 4 oz boxes</t>
+  </si>
+  <si>
+    <t>Dairy Products</t>
+  </si>
+  <si>
+    <t>Camembert Pierrot</t>
+  </si>
+  <si>
+    <t>Gai pÃ¢turage</t>
+  </si>
+  <si>
+    <t>15 - 300 g rounds</t>
+  </si>
+  <si>
+    <t>Flotemysost</t>
+  </si>
+  <si>
+    <t>Norske Meierier</t>
+  </si>
+  <si>
+    <t>10 - 500 g pkgs.</t>
+  </si>
+  <si>
+    <t>Geitost</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>Gudbrandsdalsost</t>
+  </si>
+  <si>
+    <t>10 kg pkg.</t>
+  </si>
+  <si>
+    <t>Mascarpone Fabioli</t>
+  </si>
+  <si>
+    <t>Formaggi Fortini s.r.l.</t>
+  </si>
+  <si>
+    <t>24 - 200 g pkgs.</t>
+  </si>
+  <si>
+    <t>Mozzarella di Giovanni</t>
+  </si>
+  <si>
+    <t>Queso Cabrales</t>
+  </si>
+  <si>
+    <t>Cooperativa de Quesos 'Las Cabras'</t>
+  </si>
+  <si>
+    <t>1 kg pkg.</t>
+  </si>
+  <si>
+    <t>Queso Manche La Pastora</t>
+  </si>
+  <si>
+    <t>Raclette Courdavault</t>
+  </si>
+  <si>
+    <t>5 kg pkg.</t>
+  </si>
+  <si>
+    <t>rnzola Telino</t>
+  </si>
+  <si>
+    <t>12 - 100 g pkgs</t>
+  </si>
+  <si>
+    <t>Grains/Cereals</t>
+  </si>
+  <si>
+    <t>Filo Mix</t>
+  </si>
+  <si>
+    <t>G'day, Mate</t>
+  </si>
+  <si>
+    <t>16 - 2 kg boxes</t>
+  </si>
+  <si>
+    <t>Gnocchi di nonna Alice</t>
+  </si>
+  <si>
+    <t>Pasta Buttini s.r.l.</t>
+  </si>
+  <si>
+    <t>24 - 250 g pkgs.</t>
+  </si>
+  <si>
+    <t>Gustaf's KnÃ¤ckebrÃ¶d</t>
+  </si>
+  <si>
+    <t>PB KnÃ¤ckebrÃ¶d AB</t>
+  </si>
+  <si>
+    <t>24 - 500 g pkgs.</t>
+  </si>
+  <si>
+    <t>Ravioli Angelo</t>
+  </si>
+  <si>
+    <t>Singaporean Hokkien Fried Mee</t>
+  </si>
+  <si>
+    <t>32 - 1 kg pkgs.</t>
+  </si>
+  <si>
+    <t>TunnbrÃ¶d</t>
+  </si>
+  <si>
+    <t>12 - 250 g pkgs.</t>
+  </si>
+  <si>
+    <t>Wimmers gute SemmelknÃ¶del</t>
+  </si>
+  <si>
+    <t>20 bags x 4 pieces</t>
+  </si>
+  <si>
+    <t>Meat/Poultry</t>
+  </si>
+  <si>
+    <t>Alice Mutton</t>
+  </si>
+  <si>
+    <t>20 - 1 kg tins</t>
+  </si>
+  <si>
+    <t>Mishi Kobe Niku</t>
+  </si>
+  <si>
+    <t>Big Traders</t>
+  </si>
+  <si>
+    <t>18 - 500 g pkgs.</t>
+  </si>
+  <si>
+    <t>PÃ¢tÃ© chinois</t>
+  </si>
+  <si>
+    <t>Ma Maison</t>
+  </si>
+  <si>
+    <t>24 boxes x 2 pies</t>
+  </si>
+  <si>
+    <t>Perth Pastie</t>
+  </si>
+  <si>
+    <t>48 pieces</t>
+  </si>
+  <si>
+    <t>ThÃ¼ringer Rostbratwurst</t>
+  </si>
+  <si>
+    <t>50 bags x 30 sausgs.</t>
+  </si>
+  <si>
+    <t>Tourt</t>
+  </si>
+  <si>
+    <t>16 pies</t>
+  </si>
+  <si>
+    <t>Produce</t>
+  </si>
+  <si>
+    <t>Longlife Tofu</t>
+  </si>
+  <si>
+    <t>Manjimup Dried Apples</t>
+  </si>
+  <si>
+    <t>50 - 300 g pkgs.</t>
+  </si>
+  <si>
+    <t>RÃ¶ssle Sauerkraut</t>
+  </si>
+  <si>
+    <t>25 - 825 g cans</t>
+  </si>
+  <si>
+    <t>Tofu</t>
+  </si>
+  <si>
+    <t>40 - 100 g pkgs.</t>
+  </si>
+  <si>
+    <t>Uncle Bob's Organic Dried Pears</t>
+  </si>
+  <si>
+    <t>12 - 1 lb pkgs.</t>
+  </si>
+  <si>
+    <t>Seafood</t>
+  </si>
+  <si>
+    <t>Boston Crab Meat</t>
+  </si>
+  <si>
+    <t>New England Seafood Cannery</t>
+  </si>
+  <si>
+    <t>24 - 4 oz tins</t>
+  </si>
+  <si>
+    <t>Carnarvon Tigers</t>
+  </si>
+  <si>
+    <t>16 kg pkg.</t>
+  </si>
+  <si>
+    <t>Escarts de Bourgne</t>
+  </si>
+  <si>
+    <t>Escarts Nouveaux</t>
+  </si>
+  <si>
+    <t>24 pieces</t>
+  </si>
+  <si>
+    <t>Gravad lax</t>
+  </si>
+  <si>
+    <t>Svensk SjÃ¶fÃ¶da AB</t>
+  </si>
+  <si>
+    <t>12 - 500 g pkgs.</t>
+  </si>
+  <si>
+    <t>Ikura</t>
+  </si>
+  <si>
+    <t>12 - 200 ml jars</t>
+  </si>
+  <si>
+    <t>Inlagd Sill</t>
+  </si>
+  <si>
+    <t>24 - 250 g  jars</t>
+  </si>
+  <si>
+    <t>Jack's New England Clam Chowder</t>
+  </si>
+  <si>
+    <t>12 - 12 oz cans</t>
+  </si>
+  <si>
+    <t>Konbu</t>
+  </si>
+  <si>
+    <t>2 kg box</t>
+  </si>
+  <si>
+    <t>Nord-Ost Matjeshering</t>
+  </si>
+  <si>
+    <t>Nord-Ost-Fisch Handelsgesellschaft mbH</t>
+  </si>
+  <si>
+    <t>10 - 200 g glasses</t>
+  </si>
+  <si>
+    <t>RÃ¶d Kaviar</t>
+  </si>
+  <si>
+    <t>24 - 150 g jars</t>
+  </si>
+  <si>
+    <t>Rogede sild</t>
+  </si>
+  <si>
+    <t>Lyngbysild</t>
+  </si>
+  <si>
+    <t>1k pkg.</t>
+  </si>
+  <si>
+    <t>Spegesild</t>
+  </si>
+  <si>
+    <t>4 - 450 g glasses</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="yyyy-mm-dd hh:mm:ss"/>
-    <numFmt numFmtId="169" formatCode="[h]:mm:ss"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,9 +620,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="1">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -41,111 +640,387 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0"/>
-    <xf numFmtId="166" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" builtinId="0" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ProductID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CategoryName</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ProductName</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>SupplierID</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Supplier</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>CategoryID</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>QuantityPerUnit</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>UnitPrice</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>UnitsInStock</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>UnitsOnOrder</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>ReorderLevel</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>38</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CÃ´te de Blaye</t>
-        </is>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
         <v>18</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Aux joyeux ecclÃ©siastiques</t>
-        </is>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>12 - 75 cl bottles</t>
-        </is>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>263.50</v>
+        <v>263.5</v>
       </c>
       <c r="I2">
         <v>17</v>
@@ -157,38 +1032,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Chai</t>
-        </is>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Exotic Liquids</t>
-        </is>
+      <c r="E3" t="s">
+        <v>16</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10 boxes x 20 bags</t>
-        </is>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>39</v>
@@ -200,38 +1067,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Chang</t>
-        </is>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Red car</t>
-        </is>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>24 - 12 oz bottles</t>
-        </is>
+      <c r="G4" t="s">
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>19.00</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>17</v>
@@ -243,38 +1102,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>39</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Chartreuse verte</t>
-        </is>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
       <c r="D5">
         <v>18</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Aux joyeux ecclÃ©siastiques</t>
-        </is>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>750 cc per bottle</t>
-        </is>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>18.00</v>
+        <v>18</v>
       </c>
       <c r="I5">
         <v>69</v>
@@ -286,38 +1137,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GuaranÃ¡ FantÃ¡stica</t>
-        </is>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Refrescos Americanas LTDA</t>
-        </is>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>12 - 355 ml cans</t>
-        </is>
+      <c r="G6" t="s">
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>4.50</v>
+        <v>4.5</v>
       </c>
       <c r="I6">
         <v>20</v>
@@ -329,38 +1172,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>43</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Ipoh Coffee</t>
-        </is>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Leka Trading</t>
-        </is>
+      <c r="E7" t="s">
+        <v>27</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>16 - 500 g tins</t>
-        </is>
+      <c r="G7" t="s">
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>46.00</v>
+        <v>46</v>
       </c>
       <c r="I7">
         <v>17</v>
@@ -372,38 +1207,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>76</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>LakkalikÃ¶Ã¶ri</t>
-        </is>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
       </c>
       <c r="D8">
         <v>23</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Karkki Oy</t>
-        </is>
+      <c r="E8" t="s">
+        <v>30</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>500 ml</t>
-        </is>
+      <c r="G8" t="s">
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>18.00</v>
+        <v>18</v>
       </c>
       <c r="I8">
         <v>57</v>
@@ -415,38 +1242,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>67</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Laughing Lumberjack Lager</t>
-        </is>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
       <c r="D9">
         <v>16</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Bigfoot Breweries</t>
-        </is>
+      <c r="E9" t="s">
+        <v>33</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>24 - 12 oz bottles</t>
-        </is>
+      <c r="G9" t="s">
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>14.00</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>52</v>
@@ -458,38 +1277,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>70</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Outback Lager</t>
-        </is>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Pavlova, Ltd.</t>
-        </is>
+      <c r="E10" t="s">
+        <v>35</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>24 - 355 ml bottles</t>
-        </is>
+      <c r="G10" t="s">
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>15.00</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>15</v>
@@ -501,35 +1312,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>75</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>RhonbrÃ¤u Klosterbier</t>
-        </is>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Plutzer LebensmittelgroÃŸmÃ¤rkte AG</t>
-        </is>
+      <c r="E11" t="s">
+        <v>38</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>24 - 0.5 l bottles</t>
-        </is>
+      <c r="G11" t="s">
+        <v>39</v>
       </c>
       <c r="H11">
         <v>7.75</v>
@@ -544,38 +1347,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>34</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sasquatch Ale</t>
-        </is>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Bigfoot Breweries</t>
-        </is>
+      <c r="E12" t="s">
+        <v>33</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>24 - 12 oz bottles</t>
-        </is>
+      <c r="G12" t="s">
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>14.00</v>
+        <v>14</v>
       </c>
       <c r="I12">
         <v>111</v>
@@ -587,38 +1382,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>35</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Steeleye Stout</t>
-        </is>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Bigfoot Breweries</t>
-        </is>
+      <c r="E13" t="s">
+        <v>33</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>24 - 12 oz bottles</t>
-        </is>
+      <c r="G13" t="s">
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>18.00</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>20</v>
@@ -630,38 +1417,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Condiments</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Aniseed Syrup</t>
-        </is>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Exotic Liquids</t>
-        </is>
+      <c r="E14" t="s">
+        <v>16</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>12 - 550 ml bottles</t>
-        </is>
+      <c r="G14" t="s">
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>10.00</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>13</v>
@@ -673,38 +1452,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Condiments</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Chef Anton's Cajun Seasoning</t>
-        </is>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>New Orleans Cajun Delights</t>
-        </is>
+      <c r="E15" t="s">
+        <v>46</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>48 - 6 oz jars</t>
-        </is>
+      <c r="G15" t="s">
+        <v>47</v>
       </c>
       <c r="H15">
-        <v>22.00</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <v>53</v>
@@ -716,35 +1487,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Condiments</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Chef Anton's Gumbo Mix</t>
-        </is>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>New Orleans Cajun Delights</t>
-        </is>
+      <c r="E16" t="s">
+        <v>46</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>36 boxes</t>
-        </is>
+      <c r="G16" t="s">
+        <v>49</v>
       </c>
       <c r="H16">
         <v>21.35</v>
@@ -759,38 +1522,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Condiments</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Genen Shouyu</t>
-        </is>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Red car</t>
-        </is>
+      <c r="E17" t="s">
+        <v>19</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>24 - 250 ml bottles</t>
-        </is>
+      <c r="G17" t="s">
+        <v>51</v>
       </c>
       <c r="H17">
-        <v>15.50</v>
+        <v>15.5</v>
       </c>
       <c r="I17">
         <v>39</v>
@@ -802,38 +1557,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Condiments</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Grandma's Boysenberry Spread</t>
-        </is>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Grandma Kelly's Homestead</t>
-        </is>
+      <c r="E18" t="s">
+        <v>53</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>12 - 8 oz jars</t>
-        </is>
+      <c r="G18" t="s">
+        <v>54</v>
       </c>
       <c r="H18">
-        <v>25.00</v>
+        <v>25</v>
       </c>
       <c r="I18">
         <v>120</v>
@@ -845,35 +1592,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>44</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Condiments</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Gula Malacca</t>
-        </is>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
       </c>
       <c r="D19">
         <v>20</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Leka Trading</t>
-        </is>
+      <c r="E19" t="s">
+        <v>27</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>20 - 2 kg bags</t>
-        </is>
+      <c r="G19" t="s">
+        <v>56</v>
       </c>
       <c r="H19">
         <v>19.45</v>
@@ -888,35 +1627,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>65</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Condiments</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Louisiana Fiery Hot Pepper Sauce</t>
-        </is>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>New Orleans Cajun Delights</t>
-        </is>
+      <c r="E20" t="s">
+        <v>46</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>32 - 8 oz bottles</t>
-        </is>
+      <c r="G20" t="s">
+        <v>58</v>
       </c>
       <c r="H20">
         <v>21.05</v>
@@ -931,38 +1662,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>66</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Condiments</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Louisiana Hot Spiced Okra</t>
-        </is>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>New Orleans Cajun Delights</t>
-        </is>
+      <c r="E21" t="s">
+        <v>46</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>24 - 8 oz jars</t>
-        </is>
+      <c r="G21" t="s">
+        <v>60</v>
       </c>
       <c r="H21">
-        <v>17.00</v>
+        <v>17</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -974,38 +1697,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Condiments</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Northwoods Cranberry Sauce</t>
-        </is>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Grandma Kelly's Homestead</t>
-        </is>
+      <c r="E22" t="s">
+        <v>53</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>12 - 12 oz jars</t>
-        </is>
+      <c r="G22" t="s">
+        <v>62</v>
       </c>
       <c r="H22">
-        <v>40.00</v>
+        <v>40</v>
       </c>
       <c r="I22">
         <v>6</v>
@@ -1017,38 +1732,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>77</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Condiments</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Original Frankfurter grÃ¼ne SoÃŸe</t>
-        </is>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Plutzer LebensmittelgroÃŸmÃ¤rkte AG</t>
-        </is>
+      <c r="E23" t="s">
+        <v>38</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>12 boxes</t>
-        </is>
+      <c r="G23" t="s">
+        <v>64</v>
       </c>
       <c r="H23">
-        <v>13.00</v>
+        <v>13</v>
       </c>
       <c r="I23">
         <v>32</v>
@@ -1060,38 +1767,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>61</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Condiments</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Sirop d'Ã©rable</t>
-        </is>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
       </c>
       <c r="D24">
         <v>29</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ForÃªts d'Ã©rables</t>
-        </is>
+      <c r="E24" t="s">
+        <v>66</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>24 - 500 ml bottles</t>
-        </is>
+      <c r="G24" t="s">
+        <v>67</v>
       </c>
       <c r="H24">
-        <v>28.50</v>
+        <v>28.5</v>
       </c>
       <c r="I24">
         <v>113</v>
@@ -1103,38 +1802,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>63</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Condiments</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Vegie-spread</t>
-        </is>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Pavlova, Ltd.</t>
-        </is>
+      <c r="E25" t="s">
+        <v>35</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>15 - 625 g jars</t>
-        </is>
+      <c r="G25" t="s">
+        <v>69</v>
       </c>
       <c r="H25">
-        <v>43.90</v>
+        <v>43.9</v>
       </c>
       <c r="I25">
         <v>24</v>
@@ -1146,35 +1837,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Chocolade</t>
-        </is>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
       </c>
       <c r="D26">
         <v>22</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Zaanse Snoepfabriek</t>
-        </is>
+      <c r="E26" t="s">
+        <v>72</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>10 pkgs.</t>
-        </is>
+      <c r="G26" t="s">
+        <v>73</v>
       </c>
       <c r="H26">
         <v>12.75</v>
@@ -1189,35 +1872,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>GumbÃ¤r GummibÃ¤rchen</t>
-        </is>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
       </c>
       <c r="D27">
         <v>11</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Heli SÃ¼ÃŸwaren GmbH &amp; Co. KG</t>
-        </is>
+      <c r="E27" t="s">
+        <v>75</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>100 - 250 g bags</t>
-        </is>
+      <c r="G27" t="s">
+        <v>76</v>
       </c>
       <c r="H27">
         <v>31.23</v>
@@ -1232,38 +1907,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>49</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Maxilaku</t>
-        </is>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
       </c>
       <c r="D28">
         <v>23</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Karkki Oy</t>
-        </is>
+      <c r="E28" t="s">
+        <v>30</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>24 - 50 g pkgs.</t>
-        </is>
+      <c r="G28" t="s">
+        <v>78</v>
       </c>
       <c r="H28">
-        <v>20.00</v>
+        <v>20</v>
       </c>
       <c r="I28">
         <v>10</v>
@@ -1275,38 +1942,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>NuNuCa NuÃŸ-Nougat-Creme</t>
-        </is>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
       </c>
       <c r="D29">
         <v>11</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Heli SÃ¼ÃŸwaren GmbH &amp; Co. KG</t>
-        </is>
+      <c r="E29" t="s">
+        <v>75</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>20 - 450 g glasses</t>
-        </is>
+      <c r="G29" t="s">
+        <v>80</v>
       </c>
       <c r="H29">
-        <v>14.00</v>
+        <v>14</v>
       </c>
       <c r="I29">
         <v>76</v>
@@ -1318,35 +1977,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>16</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Pavlova</t>
-        </is>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Pavlova, Ltd.</t>
-        </is>
+      <c r="E30" t="s">
+        <v>35</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>32 - 500 g boxes</t>
-        </is>
+      <c r="G30" t="s">
+        <v>82</v>
       </c>
       <c r="H30">
         <v>17.45</v>
@@ -1361,38 +2012,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Schoggi Schokolade</t>
-        </is>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
       </c>
       <c r="D31">
         <v>11</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Heli SÃ¼ÃŸwaren GmbH &amp; Co. KG</t>
-        </is>
+      <c r="E31" t="s">
+        <v>75</v>
       </c>
       <c r="F31">
         <v>3</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>100 - 100 g pieces</t>
-        </is>
+      <c r="G31" t="s">
+        <v>84</v>
       </c>
       <c r="H31">
-        <v>43.90</v>
+        <v>43.9</v>
       </c>
       <c r="I31">
         <v>49</v>
@@ -1404,38 +2047,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>68</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Scottish Longbreads</t>
-        </is>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Specialty Biscuits, Ltd.</t>
-        </is>
+      <c r="E32" t="s">
+        <v>86</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>10 boxes x 8 pieces</t>
-        </is>
+      <c r="G32" t="s">
+        <v>87</v>
       </c>
       <c r="H32">
-        <v>12.50</v>
+        <v>12.5</v>
       </c>
       <c r="I32">
         <v>6</v>
@@ -1447,38 +2082,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Sir Rodney's Marmalade</t>
-        </is>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Specialty Biscuits, Ltd.</t>
-        </is>
+      <c r="E33" t="s">
+        <v>86</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>30 gift boxes</t>
-        </is>
+      <c r="G33" t="s">
+        <v>89</v>
       </c>
       <c r="H33">
-        <v>81.00</v>
+        <v>81</v>
       </c>
       <c r="I33">
         <v>40</v>
@@ -1490,38 +2117,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>21</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Sir Rodney's Scones</t>
-        </is>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Specialty Biscuits, Ltd.</t>
-        </is>
+      <c r="E34" t="s">
+        <v>86</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>24 pkgs. x 4 pieces</t>
-        </is>
+      <c r="G34" t="s">
+        <v>91</v>
       </c>
       <c r="H34">
-        <v>10.00</v>
+        <v>10</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -1533,38 +2152,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>62</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Tarte au sucre</t>
-        </is>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
       </c>
       <c r="D35">
         <v>29</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ForÃªts d'Ã©rables</t>
-        </is>
+      <c r="E35" t="s">
+        <v>66</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>48 pies</t>
-        </is>
+      <c r="G35" t="s">
+        <v>93</v>
       </c>
       <c r="H35">
-        <v>49.30</v>
+        <v>49.3</v>
       </c>
       <c r="I35">
         <v>17</v>
@@ -1576,38 +2187,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>19</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Teatime Chocolate Biscuits</t>
-        </is>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
       </c>
       <c r="D36">
         <v>8</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Specialty Biscuits, Ltd.</t>
-        </is>
+      <c r="E36" t="s">
+        <v>86</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>10 boxes x 12 pieces</t>
-        </is>
+      <c r="G36" t="s">
+        <v>95</v>
       </c>
       <c r="H36">
-        <v>9.20</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I36">
         <v>25</v>
@@ -1619,35 +2222,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>50</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Valkoinen suklaa</t>
-        </is>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
       </c>
       <c r="D37">
         <v>23</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Karkki Oy</t>
-        </is>
+      <c r="E37" t="s">
+        <v>30</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>12 - 100 g bars</t>
-        </is>
+      <c r="G37" t="s">
+        <v>97</v>
       </c>
       <c r="H37">
         <v>16.25</v>
@@ -1662,38 +2257,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>47</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Confections</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Zaanse koeken</t>
-        </is>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
       </c>
       <c r="D38">
         <v>22</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Zaanse Snoepfabriek</t>
-        </is>
+      <c r="E38" t="s">
+        <v>72</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>10 - 4 oz boxes</t>
-        </is>
+      <c r="G38" t="s">
+        <v>99</v>
       </c>
       <c r="H38">
-        <v>9.50</v>
+        <v>9.5</v>
       </c>
       <c r="I38">
         <v>36</v>
@@ -1705,38 +2292,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>60</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Dairy Products</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Camembert Pierrot</t>
-        </is>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
       </c>
       <c r="D39">
         <v>28</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Gai pÃ¢turage</t>
-        </is>
+      <c r="E39" t="s">
+        <v>102</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>15 - 300 g rounds</t>
-        </is>
+      <c r="G39" t="s">
+        <v>103</v>
       </c>
       <c r="H39">
-        <v>34.00</v>
+        <v>34</v>
       </c>
       <c r="I39">
         <v>19</v>
@@ -1748,38 +2327,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>71</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Dairy Products</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Flotemysost</t>
-        </is>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
       </c>
       <c r="D40">
         <v>15</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Norske Meierier</t>
-        </is>
+      <c r="E40" t="s">
+        <v>105</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>10 - 500 g pkgs.</t>
-        </is>
+      <c r="G40" t="s">
+        <v>106</v>
       </c>
       <c r="H40">
-        <v>21.50</v>
+        <v>21.5</v>
       </c>
       <c r="I40">
         <v>26</v>
@@ -1791,38 +2362,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>33</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Dairy Products</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Geitost</t>
-        </is>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
       </c>
       <c r="D41">
         <v>15</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Norske Meierier</t>
-        </is>
+      <c r="E41" t="s">
+        <v>105</v>
       </c>
       <c r="F41">
         <v>4</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>500 g</t>
-        </is>
+      <c r="G41" t="s">
+        <v>108</v>
       </c>
       <c r="H41">
-        <v>2.50</v>
+        <v>2.5</v>
       </c>
       <c r="I41">
         <v>112</v>
@@ -1834,38 +2397,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>69</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Dairy Products</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Gudbrandsdalsost</t>
-        </is>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
       </c>
       <c r="D42">
         <v>15</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Norske Meierier</t>
-        </is>
+      <c r="E42" t="s">
+        <v>105</v>
       </c>
       <c r="F42">
         <v>4</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>10 kg pkg.</t>
-        </is>
+      <c r="G42" t="s">
+        <v>110</v>
       </c>
       <c r="H42">
-        <v>36.00</v>
+        <v>36</v>
       </c>
       <c r="I42">
         <v>26</v>
@@ -1877,38 +2432,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>32</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Dairy Products</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Mascarpone Fabioli</t>
-        </is>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
       </c>
       <c r="D43">
         <v>14</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Formaggi Fortini s.r.l.</t>
-        </is>
+      <c r="E43" t="s">
+        <v>112</v>
       </c>
       <c r="F43">
         <v>4</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>24 - 200 g pkgs.</t>
-        </is>
+      <c r="G43" t="s">
+        <v>113</v>
       </c>
       <c r="H43">
-        <v>32.00</v>
+        <v>32</v>
       </c>
       <c r="I43">
         <v>9</v>
@@ -1920,38 +2467,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>72</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Dairy Products</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Mozzarella di Giovanni</t>
-        </is>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
       </c>
       <c r="D44">
         <v>14</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Formaggi Fortini s.r.l.</t>
-        </is>
+      <c r="E44" t="s">
+        <v>112</v>
       </c>
       <c r="F44">
         <v>4</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>24 - 200 g pkgs.</t>
-        </is>
+      <c r="G44" t="s">
+        <v>113</v>
       </c>
       <c r="H44">
-        <v>34.80</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="I44">
         <v>14</v>
@@ -1963,38 +2502,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>11</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Dairy Products</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Queso Cabrales</t>
-        </is>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Cooperativa de Quesos 'Las Cabras'</t>
-        </is>
+      <c r="E45" t="s">
+        <v>116</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>1 kg pkg.</t>
-        </is>
+      <c r="G45" t="s">
+        <v>117</v>
       </c>
       <c r="H45">
-        <v>21.00</v>
+        <v>21</v>
       </c>
       <c r="I45">
         <v>22</v>
@@ -2006,38 +2537,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>12</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Dairy Products</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Queso Manche La Pastora</t>
-        </is>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
       </c>
       <c r="D46">
         <v>5</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Cooperativa de Quesos 'Las Cabras'</t>
-        </is>
+      <c r="E46" t="s">
+        <v>116</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>10 - 500 g pkgs.</t>
-        </is>
+      <c r="G46" t="s">
+        <v>106</v>
       </c>
       <c r="H46">
-        <v>38.00</v>
+        <v>38</v>
       </c>
       <c r="I46">
         <v>86</v>
@@ -2049,38 +2572,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>59</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Dairy Products</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Raclette Courdavault</t>
-        </is>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
       </c>
       <c r="D47">
         <v>28</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Gai pÃ¢turage</t>
-        </is>
+      <c r="E47" t="s">
+        <v>102</v>
       </c>
       <c r="F47">
         <v>4</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>5 kg pkg.</t>
-        </is>
+      <c r="G47" t="s">
+        <v>120</v>
       </c>
       <c r="H47">
-        <v>55.00</v>
+        <v>55</v>
       </c>
       <c r="I47">
         <v>79</v>
@@ -2092,38 +2607,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>31</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Dairy Products</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>rnzola Telino</t>
-        </is>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>121</v>
       </c>
       <c r="D48">
         <v>14</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Formaggi Fortini s.r.l.</t>
-        </is>
+      <c r="E48" t="s">
+        <v>112</v>
       </c>
       <c r="F48">
         <v>4</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>12 - 100 g pkgs</t>
-        </is>
+      <c r="G48" t="s">
+        <v>122</v>
       </c>
       <c r="H48">
-        <v>12.50</v>
+        <v>12.5</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2135,38 +2642,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>52</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Grains/Cereals</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Filo Mix</t>
-        </is>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
       </c>
       <c r="D49">
         <v>24</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>G'day, Mate</t>
-        </is>
+      <c r="E49" t="s">
+        <v>125</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>16 - 2 kg boxes</t>
-        </is>
+      <c r="G49" t="s">
+        <v>126</v>
       </c>
       <c r="H49">
-        <v>7.00</v>
+        <v>7</v>
       </c>
       <c r="I49">
         <v>38</v>
@@ -2178,38 +2677,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>56</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Grains/Cereals</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Gnocchi di nonna Alice</t>
-        </is>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
+        <v>127</v>
       </c>
       <c r="D50">
         <v>26</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Pasta Buttini s.r.l.</t>
-        </is>
+      <c r="E50" t="s">
+        <v>128</v>
       </c>
       <c r="F50">
         <v>5</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>24 - 250 g pkgs.</t>
-        </is>
+      <c r="G50" t="s">
+        <v>129</v>
       </c>
       <c r="H50">
-        <v>38.00</v>
+        <v>38</v>
       </c>
       <c r="I50">
         <v>21</v>
@@ -2221,38 +2712,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>22</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Grains/Cereals</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Gustaf's KnÃ¤ckebrÃ¶d</t>
-        </is>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
       </c>
       <c r="D51">
         <v>9</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>PB KnÃ¤ckebrÃ¶d AB</t>
-        </is>
+      <c r="E51" t="s">
+        <v>131</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>24 - 500 g pkgs.</t>
-        </is>
+      <c r="G51" t="s">
+        <v>132</v>
       </c>
       <c r="H51">
-        <v>21.00</v>
+        <v>21</v>
       </c>
       <c r="I51">
         <v>104</v>
@@ -2264,38 +2747,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>57</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Grains/Cereals</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Ravioli Angelo</t>
-        </is>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
       </c>
       <c r="D52">
         <v>26</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Pasta Buttini s.r.l.</t>
-        </is>
+      <c r="E52" t="s">
+        <v>128</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>24 - 250 g pkgs.</t>
-        </is>
+      <c r="G52" t="s">
+        <v>129</v>
       </c>
       <c r="H52">
-        <v>19.50</v>
+        <v>19.5</v>
       </c>
       <c r="I52">
         <v>36</v>
@@ -2307,38 +2782,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>42</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Grains/Cereals</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Singaporean Hokkien Fried Mee</t>
-        </is>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
       </c>
       <c r="D53">
         <v>20</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Leka Trading</t>
-        </is>
+      <c r="E53" t="s">
+        <v>27</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>32 - 1 kg pkgs.</t>
-        </is>
+      <c r="G53" t="s">
+        <v>135</v>
       </c>
       <c r="H53">
-        <v>14.00</v>
+        <v>14</v>
       </c>
       <c r="I53">
         <v>26</v>
@@ -2350,38 +2817,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>23</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Grains/Cereals</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>TunnbrÃ¶d</t>
-        </is>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
       </c>
       <c r="D54">
         <v>9</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>PB KnÃ¤ckebrÃ¶d AB</t>
-        </is>
+      <c r="E54" t="s">
+        <v>131</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>12 - 250 g pkgs.</t>
-        </is>
+      <c r="G54" t="s">
+        <v>137</v>
       </c>
       <c r="H54">
-        <v>9.00</v>
+        <v>9</v>
       </c>
       <c r="I54">
         <v>61</v>
@@ -2393,35 +2852,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>64</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Grains/Cereals</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Wimmers gute SemmelknÃ¶del</t>
-        </is>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
       </c>
       <c r="D55">
         <v>12</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Plutzer LebensmittelgroÃŸmÃ¤rkte AG</t>
-        </is>
+      <c r="E55" t="s">
+        <v>38</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>20 bags x 4 pieces</t>
-        </is>
+      <c r="G55" t="s">
+        <v>139</v>
       </c>
       <c r="H55">
         <v>33.25</v>
@@ -2436,38 +2887,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>17</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Meat/Poultry</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Alice Mutton</t>
-        </is>
+      <c r="B56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" t="s">
+        <v>141</v>
       </c>
       <c r="D56">
         <v>7</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Pavlova, Ltd.</t>
-        </is>
+      <c r="E56" t="s">
+        <v>35</v>
       </c>
       <c r="F56">
         <v>6</v>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>20 - 1 kg tins</t>
-        </is>
+      <c r="G56" t="s">
+        <v>142</v>
       </c>
       <c r="H56">
-        <v>39.00</v>
+        <v>39</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2479,38 +2922,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>9</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Meat/Poultry</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Mishi Kobe Niku</t>
-        </is>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" t="s">
+        <v>143</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Big Traders</t>
-        </is>
+      <c r="E57" t="s">
+        <v>144</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>18 - 500 g pkgs.</t>
-        </is>
+      <c r="G57" t="s">
+        <v>145</v>
       </c>
       <c r="H57">
-        <v>97.00</v>
+        <v>97</v>
       </c>
       <c r="I57">
         <v>29</v>
@@ -2522,38 +2957,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Meat/Poultry</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>PÃ¢tÃ© chinois</t>
-        </is>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
       </c>
       <c r="D58">
         <v>25</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Ma Maison</t>
-        </is>
+      <c r="E58" t="s">
+        <v>147</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>24 boxes x 2 pies</t>
-        </is>
+      <c r="G58" t="s">
+        <v>148</v>
       </c>
       <c r="H58">
-        <v>24.00</v>
+        <v>24</v>
       </c>
       <c r="I58">
         <v>115</v>
@@ -2565,38 +2992,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>53</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Meat/Poultry</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Perth Pastie</t>
-        </is>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
       </c>
       <c r="D59">
         <v>24</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>G'day, Mate</t>
-        </is>
+      <c r="E59" t="s">
+        <v>125</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>48 pieces</t>
-        </is>
+      <c r="G59" t="s">
+        <v>150</v>
       </c>
       <c r="H59">
-        <v>32.80</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2608,35 +3027,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>29</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Meat/Poultry</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>ThÃ¼ringer Rostbratwurst</t>
-        </is>
+      <c r="B60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" t="s">
+        <v>151</v>
       </c>
       <c r="D60">
         <v>12</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Plutzer LebensmittelgroÃŸmÃ¤rkte AG</t>
-        </is>
+      <c r="E60" t="s">
+        <v>38</v>
       </c>
       <c r="F60">
         <v>6</v>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>50 bags x 30 sausgs.</t>
-        </is>
+      <c r="G60" t="s">
+        <v>152</v>
       </c>
       <c r="H60">
         <v>123.79</v>
@@ -2651,35 +3062,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>54</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Meat/Poultry</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Tourt</t>
-        </is>
+      <c r="B61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
       </c>
       <c r="D61">
         <v>25</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Ma Maison</t>
-        </is>
+      <c r="E61" t="s">
+        <v>147</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>16 pies</t>
-        </is>
+      <c r="G61" t="s">
+        <v>154</v>
       </c>
       <c r="H61">
         <v>7.45</v>
@@ -2694,38 +3097,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>74</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Produce</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Longlife Tofu</t>
-        </is>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" t="s">
+        <v>156</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Big Traders</t>
-        </is>
+      <c r="E62" t="s">
+        <v>144</v>
       </c>
       <c r="F62">
         <v>7</v>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>5 kg pkg.</t>
-        </is>
+      <c r="G62" t="s">
+        <v>120</v>
       </c>
       <c r="H62">
-        <v>10.00</v>
+        <v>10</v>
       </c>
       <c r="I62">
         <v>4</v>
@@ -2737,38 +3132,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>51</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Produce</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Manjimup Dried Apples</t>
-        </is>
+      <c r="B63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
       </c>
       <c r="D63">
         <v>24</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>G'day, Mate</t>
-        </is>
+      <c r="E63" t="s">
+        <v>125</v>
       </c>
       <c r="F63">
         <v>7</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>50 - 300 g pkgs.</t>
-        </is>
+      <c r="G63" t="s">
+        <v>158</v>
       </c>
       <c r="H63">
-        <v>53.00</v>
+        <v>53</v>
       </c>
       <c r="I63">
         <v>20</v>
@@ -2780,38 +3167,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>28</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Produce</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>RÃ¶ssle Sauerkraut</t>
-        </is>
+      <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
       </c>
       <c r="D64">
         <v>12</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Plutzer LebensmittelgroÃŸmÃ¤rkte AG</t>
-        </is>
+      <c r="E64" t="s">
+        <v>38</v>
       </c>
       <c r="F64">
         <v>7</v>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>25 - 825 g cans</t>
-        </is>
+      <c r="G64" t="s">
+        <v>160</v>
       </c>
       <c r="H64">
-        <v>45.60</v>
+        <v>45.6</v>
       </c>
       <c r="I64">
         <v>26</v>
@@ -2823,35 +3202,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>14</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Produce</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Tofu</t>
-        </is>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="s">
+        <v>161</v>
       </c>
       <c r="D65">
         <v>6</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Red car</t>
-        </is>
+      <c r="E65" t="s">
+        <v>19</v>
       </c>
       <c r="F65">
         <v>7</v>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>40 - 100 g pkgs.</t>
-        </is>
+      <c r="G65" t="s">
+        <v>162</v>
       </c>
       <c r="H65">
         <v>23.25</v>
@@ -2866,38 +3237,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>7</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Produce</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Uncle Bob's Organic Dried Pears</t>
-        </is>
+      <c r="B66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" t="s">
+        <v>163</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Grandma Kelly's Homestead</t>
-        </is>
+      <c r="E66" t="s">
+        <v>53</v>
       </c>
       <c r="F66">
         <v>7</v>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>12 - 1 lb pkgs.</t>
-        </is>
+      <c r="G66" t="s">
+        <v>164</v>
       </c>
       <c r="H66">
-        <v>30.00</v>
+        <v>30</v>
       </c>
       <c r="I66">
         <v>15</v>
@@ -2909,38 +3272,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>40</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Seafood</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Boston Crab Meat</t>
-        </is>
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
       </c>
       <c r="D67">
         <v>19</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>New England Seafood Cannery</t>
-        </is>
+      <c r="E67" t="s">
+        <v>167</v>
       </c>
       <c r="F67">
         <v>8</v>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>24 - 4 oz tins</t>
-        </is>
+      <c r="G67" t="s">
+        <v>168</v>
       </c>
       <c r="H67">
-        <v>18.40</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I67">
         <v>123</v>
@@ -2952,38 +3307,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>18</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Seafood</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Carnarvon Tigers</t>
-        </is>
+      <c r="B68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" t="s">
+        <v>169</v>
       </c>
       <c r="D68">
         <v>7</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Pavlova, Ltd.</t>
-        </is>
+      <c r="E68" t="s">
+        <v>35</v>
       </c>
       <c r="F68">
         <v>8</v>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>16 kg pkg.</t>
-        </is>
+      <c r="G68" t="s">
+        <v>170</v>
       </c>
       <c r="H68">
-        <v>62.50</v>
+        <v>62.5</v>
       </c>
       <c r="I68">
         <v>42</v>
@@ -2995,35 +3342,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>58</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Seafood</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Escarts de Bourgne</t>
-        </is>
+      <c r="B69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" t="s">
+        <v>171</v>
       </c>
       <c r="D69">
         <v>27</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Escarts Nouveaux</t>
-        </is>
+      <c r="E69" t="s">
+        <v>172</v>
       </c>
       <c r="F69">
         <v>8</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>24 pieces</t>
-        </is>
+      <c r="G69" t="s">
+        <v>173</v>
       </c>
       <c r="H69">
         <v>13.25</v>
@@ -3038,38 +3377,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>37</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Seafood</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Gravad lax</t>
-        </is>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" t="s">
+        <v>174</v>
       </c>
       <c r="D70">
         <v>17</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Svensk SjÃ¶fÃ¶da AB</t>
-        </is>
+      <c r="E70" t="s">
+        <v>175</v>
       </c>
       <c r="F70">
         <v>8</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>12 - 500 g pkgs.</t>
-        </is>
+      <c r="G70" t="s">
+        <v>176</v>
       </c>
       <c r="H70">
-        <v>26.00</v>
+        <v>26</v>
       </c>
       <c r="I70">
         <v>11</v>
@@ -3081,38 +3412,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Seafood</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Ikura</t>
-        </is>
+      <c r="B71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" t="s">
+        <v>177</v>
       </c>
       <c r="D71">
         <v>4</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Big Traders</t>
-        </is>
+      <c r="E71" t="s">
+        <v>144</v>
       </c>
       <c r="F71">
         <v>8</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>12 - 200 ml jars</t>
-        </is>
+      <c r="G71" t="s">
+        <v>178</v>
       </c>
       <c r="H71">
-        <v>31.00</v>
+        <v>31</v>
       </c>
       <c r="I71">
         <v>31</v>
@@ -3124,38 +3447,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>36</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Seafood</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Inlagd Sill</t>
-        </is>
+      <c r="B72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
       </c>
       <c r="D72">
         <v>17</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Svensk SjÃ¶fÃ¶da AB</t>
-        </is>
+      <c r="E72" t="s">
+        <v>175</v>
       </c>
       <c r="F72">
         <v>8</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>24 - 250 g  jars</t>
-        </is>
+      <c r="G72" t="s">
+        <v>180</v>
       </c>
       <c r="H72">
-        <v>19.00</v>
+        <v>19</v>
       </c>
       <c r="I72">
         <v>112</v>
@@ -3167,35 +3482,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>41</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Seafood</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Jack's New England Clam Chowder</t>
-        </is>
+      <c r="B73" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" t="s">
+        <v>181</v>
       </c>
       <c r="D73">
         <v>19</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>New England Seafood Cannery</t>
-        </is>
+      <c r="E73" t="s">
+        <v>167</v>
       </c>
       <c r="F73">
         <v>8</v>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>12 - 12 oz cans</t>
-        </is>
+      <c r="G73" t="s">
+        <v>182</v>
       </c>
       <c r="H73">
         <v>9.65</v>
@@ -3210,38 +3517,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>13</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Seafood</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Konbu</t>
-        </is>
+      <c r="B74" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" t="s">
+        <v>183</v>
       </c>
       <c r="D74">
         <v>6</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Red car</t>
-        </is>
+      <c r="E74" t="s">
+        <v>19</v>
       </c>
       <c r="F74">
         <v>8</v>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>2 kg box</t>
-        </is>
+      <c r="G74" t="s">
+        <v>184</v>
       </c>
       <c r="H74">
-        <v>6.00</v>
+        <v>6</v>
       </c>
       <c r="I74">
         <v>24</v>
@@ -3253,35 +3552,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>30</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Seafood</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Nord-Ost Matjeshering</t>
-        </is>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
+        <v>185</v>
       </c>
       <c r="D75">
         <v>13</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Nord-Ost-Fisch Handelsgesellschaft mbH</t>
-        </is>
+      <c r="E75" t="s">
+        <v>186</v>
       </c>
       <c r="F75">
         <v>8</v>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>10 - 200 g glasses</t>
-        </is>
+      <c r="G75" t="s">
+        <v>187</v>
       </c>
       <c r="H75">
         <v>25.89</v>
@@ -3296,38 +3587,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>73</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Seafood</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>RÃ¶d Kaviar</t>
-        </is>
+      <c r="B76" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" t="s">
+        <v>188</v>
       </c>
       <c r="D76">
         <v>17</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Svensk SjÃ¶fÃ¶da AB</t>
-        </is>
+      <c r="E76" t="s">
+        <v>175</v>
       </c>
       <c r="F76">
         <v>8</v>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>24 - 150 g jars</t>
-        </is>
+      <c r="G76" t="s">
+        <v>189</v>
       </c>
       <c r="H76">
-        <v>15.00</v>
+        <v>15</v>
       </c>
       <c r="I76">
         <v>101</v>
@@ -3339,38 +3622,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>45</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Seafood</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Rogede sild</t>
-        </is>
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>190</v>
       </c>
       <c r="D77">
         <v>21</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Lyngbysild</t>
-        </is>
+      <c r="E77" t="s">
+        <v>191</v>
       </c>
       <c r="F77">
         <v>8</v>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>1k pkg.</t>
-        </is>
+      <c r="G77" t="s">
+        <v>192</v>
       </c>
       <c r="H77">
-        <v>9.50</v>
+        <v>9.5</v>
       </c>
       <c r="I77">
         <v>5</v>
@@ -3382,38 +3657,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>46</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Seafood</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Spegesild</t>
-        </is>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>193</v>
       </c>
       <c r="D78">
         <v>21</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Lyngbysild</t>
-        </is>
+      <c r="E78" t="s">
+        <v>191</v>
       </c>
       <c r="F78">
         <v>8</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>4 - 450 g glasses</t>
-        </is>
+      <c r="G78" t="s">
+        <v>194</v>
       </c>
       <c r="H78">
-        <v>12.00</v>
+        <v>12</v>
       </c>
       <c r="I78">
         <v>95</v>
@@ -3426,5 +3693,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>